--- a/明日之后共创服数据库/称号.xlsx
+++ b/明日之后共创服数据库/称号.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\明日之后共创服数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\游戏数据库\明日之后共创服数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15DF3FB-0E55-4ADE-9CA5-FC684AF1B221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD9658-EBF3-4B63-875B-7D4A58C24E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="852" windowWidth="19008" windowHeight="10572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1716" yWindow="2316" windowWidth="19008" windowHeight="10608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="123">
   <si>
     <t>获取方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,6 +431,86 @@
   </si>
   <si>
     <t>24小时，有效时间可延长，最多48小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—团团圆圆—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—料理达人—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.02.22-2024.03.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料理大赛积分榜第一名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料理大赛积分榜第二名至第十名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料理大赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—头好痒要长脑子了—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色+底纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日连线-学业有成连连看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.02.14-2024.03.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—躺一下怎么了—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.03.14-2024.03.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成护肝指南全部任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成护肝指南任一任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国护肝日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—春日樱花—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.03.21-2024.04.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花绽放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花绽放打卡4个地方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -886,7 +966,7 @@
     <col min="4" max="4" width="38.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="71.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1539,6 +1619,9 @@
       <c r="B42" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D42" s="1" t="s">
         <v>97</v>
       </c>
@@ -1564,6 +1647,138 @@
       </c>
       <c r="G43" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
